--- a/tut05/output/0401CS14.xlsx
+++ b/tut05/output/0401CS14.xlsx
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.244897959183673</v>
+        <v>9.24</v>
       </c>
       <c r="C6" t="n">
         <v>9.5</v>
       </c>
       <c r="D6" t="n">
-        <v>9.86046511627907</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>9.857142857142858</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.244897959183673</v>
+        <v>9.24</v>
       </c>
       <c r="C8" t="n">
-        <v>9.365591397849462</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>9.522058823529411</v>
+        <v>9.52</v>
       </c>
       <c r="E8" t="n">
-        <v>9.644808743169399</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>9.684444444444445</v>
+        <v>9.68</v>
       </c>
       <c r="G8" t="n">
-        <v>9.732075471698113</v>
+        <v>9.73</v>
       </c>
       <c r="H8" t="n">
-        <v>9.767973856209151</v>
+        <v>9.77</v>
       </c>
       <c r="I8" t="n">
-        <v>9.777456647398845</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
   </sheetData>
